--- a/data/georgia_census/samegrelo/martvili/healthcare_staff.xlsx
+++ b/data/georgia_census/samegrelo/martvili/healthcare_staff.xlsx
@@ -1358,13 +1358,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD1A4038-2AAD-44EF-BE3A-7A6A369E9651}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04056889-E651-4A61-A53E-28B3391A3916}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57205260-8E0F-40B2-9895-D3470A8D05EF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE29BE0F-6AE9-45B0-B453-65270485BC98}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F34B85FF-2900-4307-BFE6-D497B7CFC543}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C0FD695-F1D0-460C-A5AF-B488AC7F44F7}"/>
 </file>